--- a/ArtigoKrigingVsg/peaks/Original/content/results/metrics_1_9.xlsx
+++ b/ArtigoKrigingVsg/peaks/Original/content/results/metrics_1_9.xlsx
@@ -508,491 +508,491 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_9</t>
+          <t>model_1_9_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9723504193697859</v>
+        <v>0.9206502321472534</v>
       </c>
       <c r="C2" t="n">
-        <v>0.709887016929162</v>
+        <v>0.6829154192327169</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7122366487488191</v>
+        <v>0.6592522196632521</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9647641985155651</v>
+        <v>0.7049887767004515</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1160393750366442</v>
+        <v>0.333014000974532</v>
       </c>
       <c r="G2" t="n">
-        <v>1.939986853642149</v>
+        <v>2.120346051631065</v>
       </c>
       <c r="H2" t="n">
-        <v>1.029312821947681</v>
+        <v>1.218835052573037</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2583446048259416</v>
+        <v>0.2771006498891327</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2824533606952156</v>
+        <v>1.446187829802315</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3406455269582212</v>
+        <v>0.5770736529894014</v>
       </c>
       <c r="L2" t="n">
-        <v>1.016185120368906</v>
+        <v>0.7279436530762973</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3551475122742848</v>
+        <v>0.6016408731043036</v>
       </c>
       <c r="N2" t="n">
-        <v>134.3076514110028</v>
+        <v>36.19914148983398</v>
       </c>
       <c r="O2" t="n">
-        <v>213.5345800274359</v>
+        <v>56.92003051259339</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_8</t>
+          <t>model_1_9_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9723006421766415</v>
+        <v>0.9205137519374216</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7095515528415111</v>
+        <v>0.6816453754494131</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7110984686573267</v>
+        <v>0.659430623413759</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9655110846712123</v>
+        <v>0.6959384880385566</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1162482792678083</v>
+        <v>0.333586779219004</v>
       </c>
       <c r="G3" t="n">
-        <v>1.942230103540941</v>
+        <v>2.128838840258032</v>
       </c>
       <c r="H3" t="n">
-        <v>1.033384026139475</v>
+        <v>1.218196912701918</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2528685265021417</v>
+        <v>0.2856014819654395</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2857546997990403</v>
+        <v>1.446711019394891</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3409520190111921</v>
+        <v>0.5775697180592175</v>
       </c>
       <c r="L3" t="n">
-        <v>1.016214258238064</v>
+        <v>0.7274757209283025</v>
       </c>
       <c r="M3" t="n">
-        <v>0.3554670523284767</v>
+        <v>0.6021580566911381</v>
       </c>
       <c r="N3" t="n">
-        <v>134.3040540732432</v>
+        <v>36.19570447984268</v>
       </c>
       <c r="O3" t="n">
-        <v>213.5309826896762</v>
+        <v>56.91659350260208</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_7</t>
+          <t>model_1_9_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9722363723810705</v>
+        <v>0.9203513003478787</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7092097125364141</v>
+        <v>0.6803760234804792</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7099385152927277</v>
+        <v>0.6595776713691637</v>
       </c>
       <c r="E4" t="n">
-        <v>0.966234412966284</v>
+        <v>0.6864014478933287</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1165180058510618</v>
+        <v>0.3342685537882597</v>
       </c>
       <c r="G4" t="n">
-        <v>1.944515991235154</v>
+        <v>2.137327002719121</v>
       </c>
       <c r="H4" t="n">
-        <v>1.037533112066686</v>
+        <v>1.217670930691766</v>
       </c>
       <c r="I4" t="n">
-        <v>0.247565171542775</v>
+        <v>0.2945595141131793</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2891284387490684</v>
+        <v>1.447267858382299</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3413473390127156</v>
+        <v>0.578159626563685</v>
       </c>
       <c r="L4" t="n">
-        <v>1.016251879581812</v>
+        <v>0.7269187440498699</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3558792019208902</v>
+        <v>0.6027730788219197</v>
       </c>
       <c r="N4" t="n">
-        <v>134.2994189225151</v>
+        <v>36.19162111164965</v>
       </c>
       <c r="O4" t="n">
-        <v>213.5263475389482</v>
+        <v>56.91251013440906</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_6</t>
+          <t>model_1_9_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9721574048847901</v>
+        <v>0.9185359528598526</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7088613524322303</v>
+        <v>0.6709123296004309</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7087568163769311</v>
+        <v>0.6597578919820262</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9669341486594378</v>
+        <v>0.6069306701765549</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1168494155400239</v>
+        <v>0.3418871788517697</v>
       </c>
       <c r="G5" t="n">
-        <v>1.946845476855883</v>
+        <v>2.200610767271308</v>
       </c>
       <c r="H5" t="n">
-        <v>1.04175998056965</v>
+        <v>1.217026292009348</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2424347946671337</v>
+        <v>0.3692055018360015</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2925744655615257</v>
+        <v>1.452049893759139</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3418324378113111</v>
+        <v>0.5847111926855597</v>
       </c>
       <c r="L5" t="n">
-        <v>1.016298104457684</v>
+        <v>0.7206946955194946</v>
       </c>
       <c r="M5" t="n">
-        <v>0.3563849523796349</v>
+        <v>0.6096035586772141</v>
       </c>
       <c r="N5" t="n">
-        <v>134.2937384396135</v>
+        <v>36.1465489654847</v>
       </c>
       <c r="O5" t="n">
-        <v>213.5206670560465</v>
+        <v>56.86743798824411</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_5</t>
+          <t>model_1_9_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9720635851728282</v>
+        <v>0.9146713743230723</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7085065623916443</v>
+        <v>0.6574572464032191</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7075532360833401</v>
+        <v>0.6579266014208143</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9676101047843975</v>
+        <v>0.4761366779490243</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1172431568009776</v>
+        <v>0.3581059882502011</v>
       </c>
       <c r="G6" t="n">
-        <v>1.949217959490938</v>
+        <v>2.290584970566024</v>
       </c>
       <c r="H6" t="n">
-        <v>1.04606511749223</v>
+        <v>1.223576712162475</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2374787666891836</v>
+        <v>0.4920587948140871</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2960967155971878</v>
+        <v>1.460251445959731</v>
       </c>
       <c r="K6" t="n">
-        <v>0.3424078807518565</v>
+        <v>0.5984195754236329</v>
       </c>
       <c r="L6" t="n">
-        <v>1.016353023313466</v>
+        <v>0.7074447119648195</v>
       </c>
       <c r="M6" t="n">
-        <v>0.3569848931174904</v>
+        <v>0.6238955356487114</v>
       </c>
       <c r="N6" t="n">
-        <v>134.2870104750595</v>
+        <v>36.05385255966545</v>
       </c>
       <c r="O6" t="n">
-        <v>213.5139390914926</v>
+        <v>56.77474158242486</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_4</t>
+          <t>model_1_9_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9719547206306501</v>
+        <v>0.9141493425825942</v>
       </c>
       <c r="C7" t="n">
-        <v>0.708145174754514</v>
+        <v>0.6558885216372207</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7063277254229157</v>
+        <v>0.6575870665860408</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9682619756167562</v>
+        <v>0.4598762471609327</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1177000379959198</v>
+        <v>0.3602968437906353</v>
       </c>
       <c r="G7" t="n">
-        <v>1.951634560284466</v>
+        <v>2.301075040299569</v>
       </c>
       <c r="H7" t="n">
-        <v>1.050448698065377</v>
+        <v>1.224791208579099</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2326993291430368</v>
+        <v>0.5073320304844546</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2996933878087011</v>
+        <v>1.461290484222423</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3430743913438014</v>
+        <v>0.60024731885335</v>
       </c>
       <c r="L7" t="n">
-        <v>1.016416748899132</v>
+        <v>0.7056548888546086</v>
       </c>
       <c r="M7" t="n">
-        <v>0.3576797784452016</v>
+        <v>0.625801089900182</v>
       </c>
       <c r="N7" t="n">
-        <v>134.2792318837918</v>
+        <v>36.04165404242947</v>
       </c>
       <c r="O7" t="n">
-        <v>213.5061605002249</v>
+        <v>56.76254306518888</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_3</t>
+          <t>model_1_9_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9718305870837062</v>
+        <v>0.9136103091552256</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7077771485545234</v>
+        <v>0.654208014562641</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7050801398748733</v>
+        <v>0.6572215435814969</v>
       </c>
       <c r="E8" t="n">
-        <v>0.968889721578282</v>
+        <v>0.4433007567729382</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1182209999374807</v>
+        <v>0.3625590517739043</v>
       </c>
       <c r="G8" t="n">
-        <v>1.954095553178407</v>
+        <v>2.312312598845307</v>
       </c>
       <c r="H8" t="n">
-        <v>1.054911239231558</v>
+        <v>1.226098663172111</v>
       </c>
       <c r="I8" t="n">
-        <v>0.228096772211471</v>
+        <v>0.5229011980143307</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3033689192233846</v>
+        <v>1.462350641890154</v>
       </c>
       <c r="K8" t="n">
-        <v>0.3438328081167949</v>
+        <v>0.6021287667716136</v>
       </c>
       <c r="L8" t="n">
-        <v>1.016489412438806</v>
+        <v>0.7038067742464877</v>
       </c>
       <c r="M8" t="n">
-        <v>0.3584704825903605</v>
+        <v>0.6277626349514602</v>
       </c>
       <c r="N8" t="n">
-        <v>134.2703990506898</v>
+        <v>36.02913583301831</v>
       </c>
       <c r="O8" t="n">
-        <v>213.4973276671228</v>
+        <v>56.75002485577772</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_2</t>
+          <t>model_1_9_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9716910995767877</v>
+        <v>0.9130548954670024</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7074024681679734</v>
+        <v>0.6526121287005895</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7038105931618701</v>
+        <v>0.6568295987446429</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9694934404586317</v>
+        <v>0.4264197550022939</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1188063991644968</v>
+        <v>0.364890004207873</v>
       </c>
       <c r="G9" t="n">
-        <v>1.956601042648512</v>
+        <v>2.322984294953224</v>
       </c>
       <c r="H9" t="n">
-        <v>1.059452334211423</v>
+        <v>1.227500627127271</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2236703789126326</v>
+        <v>0.5387573288730387</v>
       </c>
       <c r="J9" t="n">
-        <v>0.307125652323914</v>
+        <v>1.463437162446875</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3446830415969095</v>
+        <v>0.6040612586550084</v>
       </c>
       <c r="L9" t="n">
-        <v>1.016571063662368</v>
+        <v>0.7019024987440081</v>
       </c>
       <c r="M9" t="n">
-        <v>0.3593569122699496</v>
+        <v>0.6297773970151408</v>
       </c>
       <c r="N9" t="n">
-        <v>134.2605200169665</v>
+        <v>36.01631865830358</v>
       </c>
       <c r="O9" t="n">
-        <v>213.4874486333995</v>
+        <v>56.73720768106298</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_1</t>
+          <t>model_1_9_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9715360289510054</v>
+        <v>0.9124833762667349</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7070210379858182</v>
+        <v>0.650724360221822</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7025190498946189</v>
+        <v>0.6564120669754029</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9700728174180528</v>
+        <v>0.4092397293575271</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1194571974078033</v>
+        <v>0.3672885480305599</v>
       </c>
       <c r="G10" t="n">
-        <v>1.959151668032909</v>
+        <v>2.335607811463117</v>
       </c>
       <c r="H10" t="n">
-        <v>1.064072109590399</v>
+        <v>1.228994114055959</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2194224576132394</v>
+        <v>0.5548943294184147</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3109647832012127</v>
+        <v>1.46454721136441</v>
       </c>
       <c r="K10" t="n">
-        <v>0.3456258054714713</v>
+        <v>0.6060433549099932</v>
       </c>
       <c r="L10" t="n">
-        <v>1.016661836711606</v>
+        <v>0.6999430043430912</v>
       </c>
       <c r="M10" t="n">
-        <v>0.3603398115544417</v>
+        <v>0.6318438752112051</v>
       </c>
       <c r="N10" t="n">
-        <v>134.2495943049209</v>
+        <v>36.00321501086448</v>
       </c>
       <c r="O10" t="n">
-        <v>213.4765229213539</v>
+        <v>56.72410403362389</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_0</t>
+          <t>model_1_9_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9713651652049511</v>
+        <v>0.9106763511803725</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7066329076845805</v>
+        <v>0.6458326648668109</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7012052271915663</v>
+        <v>0.6550055182968697</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9706276646442751</v>
+        <v>0.3559848983816457</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1201742759983881</v>
+        <v>0.3748722457546368</v>
       </c>
       <c r="G11" t="n">
-        <v>1.961747097144461</v>
+        <v>2.368318600826262</v>
       </c>
       <c r="H11" t="n">
-        <v>1.068771577219401</v>
+        <v>1.234025257122694</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2153543853299829</v>
+        <v>0.604915979808877</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3148879707996547</v>
+        <v>1.468007541870371</v>
       </c>
       <c r="K11" t="n">
-        <v>0.3466616159865238</v>
+        <v>0.6122681159056356</v>
       </c>
       <c r="L11" t="n">
-        <v>1.016761854514175</v>
+        <v>0.6937474897612772</v>
       </c>
       <c r="M11" t="n">
-        <v>0.3614197186675434</v>
+        <v>0.6383336371694637</v>
       </c>
       <c r="N11" t="n">
-        <v>134.2376245795624</v>
+        <v>35.96233997808658</v>
       </c>
       <c r="O11" t="n">
-        <v>213.4645531959954</v>
+        <v>56.68322900084599</v>
       </c>
     </row>
   </sheetData>
